--- a/Parameter_optimisation/remote/graphs/Evaluation_different_optimizers.xlsx
+++ b/Parameter_optimisation/remote/graphs/Evaluation_different_optimizers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Q642074/qiro/Parameter_optimisation/remote/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68E60B9-FB20-8E42-8A86-CE8E705BB40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AE1FFC-60F7-D949-A04D-13C9B25A18D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C3B805ED-45BE-1947-93ED-B264623ED78F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Adam</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Maybe try some lr around o.ooo1</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +195,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,15 +235,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -253,12 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,12 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,6 +326,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C597903E-C9F4-4A44-B93C-DD2B45DDF115}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,339 +686,339 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>30</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="I3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <v>30</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="16">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <v>10</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="13">
+      <c r="A4" s="43"/>
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>40</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="19">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16">
         <v>2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>40</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="16">
+      <c r="H4" s="25"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <v>20</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13">
+      <c r="A5" s="43"/>
+      <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>50</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="19">
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16">
         <v>3</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>50</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="16">
+      <c r="H5" s="25"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="13">
         <v>3</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>30</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="I6" s="27"/>
+      <c r="J6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="K6" s="8">
         <v>20</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <v>20</v>
-      </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="14">
+      <c r="A7" s="44"/>
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>40</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="20">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>40</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="17">
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="14">
         <v>2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="8">
         <v>40</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="14">
+      <c r="A8" s="44"/>
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>40</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="20">
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17">
         <v>3</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>40</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="17">
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="14">
         <v>3</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <v>50</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="I9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="21">
+      <c r="J9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="42" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15">
+      <c r="A10" s="45"/>
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>50</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="21">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>50</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="18">
+      <c r="H10" s="28"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="15">
         <v>2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="9">
         <v>40</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="15">
+      <c r="A11" s="45"/>
+      <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>50</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="21">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>50</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="18">
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="15">
         <v>3</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>50</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/Parameter_optimisation/remote/graphs/Evaluation_different_optimizers.xlsx
+++ b/Parameter_optimisation/remote/graphs/Evaluation_different_optimizers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Q642074/qiro/Parameter_optimisation/remote/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AE1FFC-60F7-D949-A04D-13C9B25A18D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01811F66-15B9-2C4B-9996-71B2D9A80936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C3B805ED-45BE-1947-93ED-B264623ED78F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{C3B805ED-45BE-1947-93ED-B264623ED78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -246,13 +246,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -273,84 +273,81 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,65 +683,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10">
@@ -753,10 +750,10 @@
       <c r="C3" s="3">
         <v>30</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="16">
@@ -765,10 +762,10 @@
       <c r="G3" s="4">
         <v>30</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="13">
@@ -777,69 +774,69 @@
       <c r="K3" s="7">
         <v>10</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>40</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="16">
         <v>2</v>
       </c>
       <c r="G4" s="4">
         <v>40</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="38"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="13">
         <v>2</v>
       </c>
       <c r="K4" s="7">
         <v>20</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="10">
         <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="16">
         <v>3</v>
       </c>
       <c r="G5" s="4">
         <v>50</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="38"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="13">
         <v>3</v>
       </c>
       <c r="K5" s="7">
         <v>30</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11">
@@ -848,10 +845,10 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="17">
@@ -860,173 +857,174 @@
       <c r="G6" s="5">
         <v>20</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="14">
         <v>1</v>
       </c>
       <c r="K6" s="8">
         <v>20</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="11">
         <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="17">
         <v>2</v>
       </c>
       <c r="G7" s="5">
         <v>40</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="14">
         <v>2</v>
       </c>
       <c r="K7" s="8">
         <v>40</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="11">
         <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>40</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="17">
         <v>3</v>
       </c>
       <c r="G8" s="5">
         <v>40</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="14">
         <v>3</v>
       </c>
       <c r="K8" s="8">
         <v>50</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="18">
         <v>1</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="15">
         <v>1</v>
       </c>
       <c r="K9" s="9"/>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>50</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="18">
         <v>2</v>
       </c>
       <c r="G10" s="6">
         <v>50</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="30"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="15">
         <v>2</v>
       </c>
       <c r="K10" s="9">
         <v>40</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="12">
         <v>3</v>
       </c>
       <c r="C11" s="2">
         <v>50</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="18">
         <v>3</v>
       </c>
       <c r="G11" s="6">
         <v>50</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="15">
         <v>3</v>
       </c>
       <c r="K11" s="9">
         <v>50</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="B1:E1"/>
@@ -1039,13 +1037,12 @@
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
